--- a/cons_statistic.xlsx
+++ b/cons_statistic.xlsx
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="B8">
-        <v>80764.0738</v>
+        <v>121146.1107</v>
       </c>
       <c r="C8">
-        <v>4038.20369</v>
+        <v>6057.305535</v>
       </c>
       <c r="D8">
-        <v>498.2800573794455</v>
+        <v>747.4200860691682</v>
       </c>
       <c r="E8">
-        <v>2936.29872</v>
+        <v>4404.44808</v>
       </c>
       <c r="F8">
-        <v>3704.19283</v>
+        <v>5556.289244999999</v>
       </c>
       <c r="G8">
-        <v>3945.85828</v>
+        <v>5918.787420000001</v>
       </c>
       <c r="H8">
-        <v>4253.09258</v>
+        <v>6379.638870000001</v>
       </c>
       <c r="I8">
-        <v>5052.66372</v>
+        <v>7578.99558</v>
       </c>
     </row>
     <row r="9">
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B9">
-        <v>90264.42876</v>
+        <v>135396.64314</v>
       </c>
       <c r="C9">
-        <v>4513.221438</v>
+        <v>6769.832157</v>
       </c>
       <c r="D9">
-        <v>335.0836488509239</v>
+        <v>502.6254732763857</v>
       </c>
       <c r="E9">
-        <v>3870.12292</v>
+        <v>5805.18438</v>
       </c>
       <c r="F9">
-        <v>4305.18178</v>
+        <v>6457.77267</v>
       </c>
       <c r="G9">
-        <v>4473.405580000001</v>
+        <v>6710.10837</v>
       </c>
       <c r="H9">
-        <v>4699.4507</v>
+        <v>7049.17605</v>
       </c>
       <c r="I9">
-        <v>5101.6028</v>
+        <v>7652.4042</v>
       </c>
     </row>
     <row r="10">
@@ -783,28 +783,28 @@
         </is>
       </c>
       <c r="B14">
-        <v>89713.66</v>
+        <v>45890.7871</v>
       </c>
       <c r="C14">
-        <v>4485.683</v>
+        <v>2294.539355</v>
       </c>
       <c r="D14">
-        <v>654.7418984708884</v>
+        <v>293.8163762729203</v>
       </c>
       <c r="E14">
-        <v>3688.304</v>
+        <v>1759.57596</v>
       </c>
       <c r="F14">
-        <v>3916.9715</v>
+        <v>2138.16066</v>
       </c>
       <c r="G14">
-        <v>4228.7345</v>
+        <v>2382.55388</v>
       </c>
       <c r="H14">
-        <v>5222.893749999999</v>
+        <v>2515.978835</v>
       </c>
       <c r="I14">
-        <v>5465.476</v>
+        <v>2672.41678</v>
       </c>
     </row>
     <row r="15">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B15">
-        <v>100728.874</v>
+        <v>55184.85764</v>
       </c>
       <c r="C15">
-        <v>5036.4437</v>
+        <v>2759.242882</v>
       </c>
       <c r="D15">
-        <v>541.4797608921316</v>
+        <v>322.9244386155463</v>
       </c>
       <c r="E15">
-        <v>3942.691</v>
+        <v>2187.48876</v>
       </c>
       <c r="F15">
-        <v>5095.97375</v>
+        <v>2612.24127</v>
       </c>
       <c r="G15">
-        <v>5169.8575</v>
+        <v>2882.36805</v>
       </c>
       <c r="H15">
-        <v>5270.72275</v>
+        <v>2988.57961</v>
       </c>
       <c r="I15">
-        <v>5717.571</v>
+        <v>3140.92874</v>
       </c>
     </row>
     <row r="16">
@@ -1062,28 +1062,28 @@
         </is>
       </c>
       <c r="B23">
-        <v>22354.191</v>
+        <v>19523.5777142</v>
       </c>
       <c r="C23">
-        <v>1117.70955</v>
+        <v>976.17888571</v>
       </c>
       <c r="D23">
-        <v>65.89663653382509</v>
+        <v>46.040537600569</v>
       </c>
       <c r="E23">
-        <v>898.987</v>
+        <v>889.4610286</v>
       </c>
       <c r="F23">
-        <v>1089.3065</v>
+        <v>955.13590575</v>
       </c>
       <c r="G23">
-        <v>1120.656</v>
+        <v>974.0940206499999</v>
       </c>
       <c r="H23">
-        <v>1168.95275</v>
+        <v>1015.60962025</v>
       </c>
       <c r="I23">
-        <v>1174.6</v>
+        <v>1044.654464</v>
       </c>
     </row>
     <row r="24">
